--- a/Visualization/Matplotlib/procurmentdata.xlsx
+++ b/Visualization/Matplotlib/procurmentdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seder\Documents\GitHub\Data-Analysis\Visualization\Matplotlib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8BEFE-53FF-47DA-8087-DCA8E25A2A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491CDDB-BA18-452F-9EFB-2B8BF3BC3E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16E3B23F-AEDA-456D-961B-FC3DCF2F1508}"/>
   </bookViews>
@@ -488,20 +488,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152250FF-C83C-459B-8409-9761FC56A307}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:I6" si="0">C3+5</f>
+        <f t="shared" ref="H3:H6" si="0">C3+5</f>
         <v>44850</v>
       </c>
       <c r="I3" s="1" t="s">
